--- a/Análisis estadístico/Kaplan_Meier/120_días/Estimación_crónicos/General/Outcome_críticos.xlsx
+++ b/Análisis estadístico/Kaplan_Meier/120_días/Estimación_crónicos/General/Outcome_críticos.xlsx
@@ -1,56 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiobarona03/Desktop/Proyecto_Long_COVID/Análisis estadístico/Kaplan_Meier/120_días/Estimación_crónicos/General/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B94D2-CCD2-7040-A22B-A578E6CC93F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21040" windowHeight="12400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>n.risk</t>
-  </si>
-  <si>
-    <t>n.event</t>
-  </si>
-  <si>
-    <t>surv</t>
-  </si>
-  <si>
-    <t>std.err</t>
-  </si>
-  <si>
-    <t>lower 95% CI</t>
-  </si>
-  <si>
-    <t>upper 95% CI</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,29 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,42 +350,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="7" width="8.83203125" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n.risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n.event</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>surv</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std.err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lower 95% CI</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>upper 95% CI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,20 +404,20 @@
       <c r="C2">
         <v>38</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.96157735085945395</v>
-      </c>
-      <c r="E2" s="3">
-        <v>6.3562854739904699E-3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.94223113891279409</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.97453205357047745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.9615773508594539</v>
+      </c>
+      <c r="E2">
+        <v>0.00635628547399047</v>
+      </c>
+      <c r="F2">
+        <v>0.9422311389127941</v>
+      </c>
+      <c r="G2">
+        <v>0.9745320535704775</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,20 +427,20 @@
       <c r="C3">
         <v>34</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.917216930331338</v>
       </c>
-      <c r="E3" s="3">
-        <v>1.029686207500787E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.88918036969930281</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.93840617449744879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.01029686207500787</v>
+      </c>
+      <c r="F3">
+        <v>0.8891803696993028</v>
+      </c>
+      <c r="G3">
+        <v>0.9384061744974488</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,20 +450,20 @@
       <c r="C4">
         <v>41</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.8615044945630641</v>
       </c>
-      <c r="E4" s="3">
-        <v>1.4206722118641961E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.82650296622476471</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.88991765050392779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0.01420672211864196</v>
+      </c>
+      <c r="F4">
+        <v>0.8265029662247647</v>
+      </c>
+      <c r="G4">
+        <v>0.8899176505039278</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,20 +473,20 @@
       <c r="C5">
         <v>44</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.79822202751669546</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.8280691271259621E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.75749607470974456</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.83287280849525902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.7982220275166955</v>
+      </c>
+      <c r="E5">
+        <v>0.01828069127125962</v>
+      </c>
+      <c r="F5">
+        <v>0.7574960747097446</v>
+      </c>
+      <c r="G5">
+        <v>0.832872808495259</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,20 +496,20 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.7610608530513</v>
       </c>
-      <c r="E6" s="3">
-        <v>2.0618226898340641E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.71772563954699486</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.79869287229531927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.02061822689834064</v>
+      </c>
+      <c r="F6">
+        <v>0.7177256395469949</v>
+      </c>
+      <c r="G6">
+        <v>0.7986928722953193</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,20 +519,20 @@
       <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.72076027834797252</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.3216137427221881E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.67498942090670899</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="D7">
+        <v>0.7207602783479725</v>
+      </c>
+      <c r="E7">
+        <v>0.02321613742722188</v>
+      </c>
+      <c r="F7">
+        <v>0.674989420906709</v>
+      </c>
+      <c r="G7">
         <v>0.7612520987874456</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,20 +542,20 @@
       <c r="C8">
         <v>41</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0.6547978421598768</v>
       </c>
-      <c r="E8" s="3">
-        <v>2.7637811724144371E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.60595258754931824</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.69914212258142772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0.02763781172414437</v>
+      </c>
+      <c r="F8">
+        <v>0.6059525875493182</v>
+      </c>
+      <c r="G8">
+        <v>0.6991421225814277</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -639,20 +565,20 @@
       <c r="C9">
         <v>25</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.61271571862775109</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.0666060991728309E-2</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9">
+        <v>0.6127157186277511</v>
+      </c>
+      <c r="E9">
+        <v>0.03066606099172831</v>
+      </c>
+      <c r="F9">
         <v>0.5623841822486898</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.65908455547725175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0.6590845554772518</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -662,20 +588,20 @@
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.57867595648176495</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.3352749823056693E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.52727266346126667</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.62656155507003708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0.578675956481765</v>
+      </c>
+      <c r="E10">
+        <v>0.03335274982305669</v>
+      </c>
+      <c r="F10">
+        <v>0.5272726634612667</v>
+      </c>
+      <c r="G10">
+        <v>0.6265615550700371</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -685,20 +611,20 @@
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.54652729223277796</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3.6119796192766722E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.49422942668633008</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.59574516808250422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0.546527292232778</v>
+      </c>
+      <c r="E11">
+        <v>0.03611979619276672</v>
+      </c>
+      <c r="F11">
+        <v>0.4942294266863301</v>
+      </c>
+      <c r="G11">
+        <v>0.5957451680825042</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -708,20 +634,20 @@
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.51449638865869574</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.9149541474465963E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.46141269377615818</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.56495879887532907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.5144963886586957</v>
+      </c>
+      <c r="E12">
+        <v>0.03914954147446596</v>
+      </c>
+      <c r="F12">
+        <v>0.4614126937761582</v>
+      </c>
+      <c r="G12">
+        <v>0.5649587988753291</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -731,20 +657,20 @@
       <c r="C13">
         <v>17</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.47711844589289309</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.3214317708743621E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.42311496486540479</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.52906424261638108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0.4771184458928931</v>
+      </c>
+      <c r="E13">
+        <v>0.04321431770874362</v>
+      </c>
+      <c r="F13">
+        <v>0.4231149648654048</v>
+      </c>
+      <c r="G13">
+        <v>0.5290642426163811</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -754,20 +680,20 @@
       <c r="C14">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.44372015468039061</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.7368991345116671E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.38898567080784691</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.49695003043196267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0.4437201546803906</v>
+      </c>
+      <c r="E14">
+        <v>0.04736899134511667</v>
+      </c>
+      <c r="F14">
+        <v>0.3889856708078469</v>
+      </c>
+      <c r="G14">
+        <v>0.4969500304319627</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -777,20 +703,20 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.40263495517294712</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.3606929806847482E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.34685877023554329</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.45766795193724219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0.4026349551729471</v>
+      </c>
+      <c r="E15">
+        <v>0.05360692980684748</v>
+      </c>
+      <c r="F15">
+        <v>0.3468587702355433</v>
+      </c>
+      <c r="G15">
+        <v>0.4576679519372422</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -800,20 +726,20 @@
       <c r="C16">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.35419766733259261</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6.246530619346724E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.29761872098136338</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.41112760375012708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0.3541976673325926</v>
+      </c>
+      <c r="E16">
+        <v>0.06246530619346724</v>
+      </c>
+      <c r="F16">
+        <v>0.2976187209813634</v>
+      </c>
+      <c r="G16">
+        <v>0.4111276037501271</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -823,20 +749,20 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.3286699075248381</v>
       </c>
-      <c r="E17" s="3">
-        <v>6.7835413560413102E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.27201432380023799</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.38635540345986802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0.0678354135604131</v>
+      </c>
+      <c r="F17">
+        <v>0.272014323800238</v>
+      </c>
+      <c r="G17">
+        <v>0.386355403459868</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -846,20 +772,20 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.28226944999191977</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8.0842857368759777E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.22509063861637771</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.34201745219397522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0.2822694499919198</v>
+      </c>
+      <c r="E18">
+        <v>0.08084285736875978</v>
+      </c>
+      <c r="F18">
+        <v>0.2250906386163777</v>
+      </c>
+      <c r="G18">
+        <v>0.3420174521939752</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -869,20 +795,20 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.23522454165993309</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9.934234203439625E-2</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="D19">
+        <v>0.2352245416599331</v>
+      </c>
+      <c r="E19">
+        <v>0.09934234203439625</v>
+      </c>
+      <c r="F19">
         <v>0.1777956321777425</v>
       </c>
-      <c r="G19" s="3">
-        <v>0.29740160095560719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0.2974016009556072</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -892,20 +818,20 @@
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.16906763931807689</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.14865114123492021</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.11028066667239191</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.23859445116329239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.1690676393180769</v>
+      </c>
+      <c r="E20">
+        <v>0.1486511412349202</v>
+      </c>
+      <c r="F20">
+        <v>0.1102806666723919</v>
+      </c>
+      <c r="G20">
+        <v>0.2385944511632924</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
@@ -915,20 +841,20 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0.1268007294885577</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.20719675461690401</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6.8965345327861347E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.20294450638437481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0.207196754616904</v>
+      </c>
+      <c r="F21">
+        <v>0.06896534532786135</v>
+      </c>
+      <c r="G21">
+        <v>0.2029445063843748</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>120</v>
       </c>
@@ -938,17 +864,17 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>0.1268007294885577</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.20719675461690401</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.8965345327861347E-2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.20294450638437481</v>
+      <c r="E22">
+        <v>0.207196754616904</v>
+      </c>
+      <c r="F22">
+        <v>0.06896534532786135</v>
+      </c>
+      <c r="G22">
+        <v>0.2029445063843748</v>
       </c>
     </row>
   </sheetData>
